--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2567725.590641202</v>
+        <v>2671959.29903465</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12502432.03437992</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9010369.080114352</v>
+        <v>9019281.971365958</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.45713216103701</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>105.2848681990838</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>159.5738182982638</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>81.73686178476211</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,10 +952,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>242.3825233158316</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>83.86213727474878</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247807</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>64.94752030416426</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>74.75769145492382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>342.0719157286852</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>62.92930610001664</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>57.80541963715993</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>82.35785554497977</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1350,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>84.90358457993527</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>8.168913835719858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1667,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1765,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>40.15381658332819</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>53.22824985092586</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1898,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>34.22340015155905</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>56.10180801516488</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>99.97427419833815</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>98.45284414232987</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2479,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2527,13 +2529,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>176.76214411214</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2564,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695459</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2722,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>18.16423677622371</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>159.6155901915576</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2950,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.42659968729146</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>14.73874327217528</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>54.29785174158985</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,10 +3198,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>131.5907017407193</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3235,13 +3237,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3421,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="G37" t="n">
-        <v>58.24570521548608</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3664,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>116.287325111933</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3901,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>98.03921036659287</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,19 +4191,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>25.7319404949734</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>45.16086499484882</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>1694.7321336807</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1588.383781964454</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2084.871465656512</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2084.871465656512</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1694.7321336807</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1861.38035112061</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>511.4317969248226</v>
+        <v>514.036292340028</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U4" t="n">
-        <v>1513.842048484845</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V4" t="n">
-        <v>1431.27956183357</v>
+        <v>896.0145465323095</v>
       </c>
       <c r="W4" t="n">
-        <v>1141.86239179661</v>
+        <v>896.0145465323095</v>
       </c>
       <c r="X4" t="n">
-        <v>913.8728408985925</v>
+        <v>896.0145465323095</v>
       </c>
       <c r="Y4" t="n">
-        <v>693.0802617550623</v>
+        <v>675.2219673887794</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1261.532988317206</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="C5" t="n">
-        <v>892.5704713767946</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D5" t="n">
-        <v>892.5704713767946</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.33740552049</v>
       </c>
       <c r="U5" t="n">
-        <v>2764.506573888334</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V5" t="n">
-        <v>2764.506573888334</v>
+        <v>2671.097699223873</v>
       </c>
       <c r="W5" t="n">
-        <v>2411.73791861822</v>
+        <v>2318.329043953759</v>
       </c>
       <c r="X5" t="n">
-        <v>2038.27216035714</v>
+        <v>1944.863285692679</v>
       </c>
       <c r="Y5" t="n">
-        <v>1648.132828381328</v>
+        <v>1554.723953716867</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4622,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>142.0249360836216</v>
+        <v>594.6215500005602</v>
       </c>
       <c r="C7" t="n">
-        <v>142.0249360836216</v>
+        <v>529.017994137768</v>
       </c>
       <c r="D7" t="n">
-        <v>142.0249360836216</v>
+        <v>529.017994137768</v>
       </c>
       <c r="E7" t="n">
-        <v>142.0249360836216</v>
+        <v>381.1049005553749</v>
       </c>
       <c r="F7" t="n">
-        <v>142.0249360836216</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1548.361223971665</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1293.676735765778</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>776.2700148307999</v>
       </c>
       <c r="Y7" t="n">
-        <v>142.0249360836216</v>
+        <v>776.2700148307999</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1638.360256348809</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C8" t="n">
-        <v>1292.833068744076</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649822</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2788.565186649822</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>2415.099428388742</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y8" t="n">
-        <v>2024.96009641293</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>511.4317969248226</v>
+        <v>754.647583030232</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>585.7114001023251</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>585.7114001023251</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>585.7114001023251</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>438.8214526044147</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>271.1186159791337</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>124.9014291969914</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1754.274337770284</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1754.274337770284</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1465.171470895927</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>1210.48698269004</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="W10" t="n">
-        <v>921.0698126530797</v>
+        <v>1157.088627004002</v>
       </c>
       <c r="X10" t="n">
-        <v>693.0802617550623</v>
+        <v>1157.088627004002</v>
       </c>
       <c r="Y10" t="n">
-        <v>693.0802617550623</v>
+        <v>936.2960478604717</v>
       </c>
     </row>
     <row r="11">
@@ -5021,37 +5023,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438179</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.6374272687975</v>
+        <v>1017.232257523796</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408906</v>
+        <v>848.2960745958886</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>698.1794351835529</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>550.2663416011598</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>403.3763941032494</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5194,16 +5196,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2438.711655463372</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2255.856821118276</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2036.255356141217</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1747.180129485415</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1492.495641279528</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W13" t="n">
-        <v>1203.078471242567</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X13" t="n">
-        <v>1203.078471242567</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.2858920990373</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5269,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5315,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,16 +5357,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.8178837532264</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2393.197174639931</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2210.342340294836</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1990.740875317776</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1701.665648661974</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1701.665648661974</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1412.248478625014</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X16" t="n">
-        <v>1184.258927726996</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.4663485834661</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,31 +5512,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>542.9134462654469</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891999</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5477693179085</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>593.6115863900017</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>443.4949469776659</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>295.5818533952728</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>295.5818533952728</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>128.3857541101527</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2140.394052542956</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5741,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5829,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>119.290296770379</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1963.765362972544</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>3175.341129796739</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>3006.404946868832</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>2708.375213874103</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G22" t="n">
-        <v>194.8007783998286</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>4121.883832013356</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>3867.199343807469</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>3577.782173770509</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>3577.782173770509</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>3356.989594626978</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,10 +5989,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2222.001901828445</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6175,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6206,37 +6208,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6263,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2222.001901828445</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>802.9288273958734</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C28" t="n">
-        <v>633.9926444679666</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D28" t="n">
-        <v>483.8760050556308</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
-        <v>335.9629114732377</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6424,10 +6426,10 @@
         <v>1433.359422267661</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369643</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.5772922261132</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>726.955532171245</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>558.0193492433381</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
         <v>407.9027098310023</v>
@@ -6610,13 +6612,13 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6661,10 +6663,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1129.396576145015</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.6039970014847</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3173.601046153952</v>
+        <v>917.5010142286973</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>748.5648313007904</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>598.4481918884546</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>450.5350983060615</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>450.5350983060615</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>4221.331149328841</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>3966.646661122954</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W34" t="n">
-        <v>3677.229491085994</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X34" t="n">
-        <v>3449.239940187977</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y34" t="n">
-        <v>3228.447361044447</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6931,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
@@ -6938,16 +6940,16 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6962,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,22 +7010,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703109</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C37" t="n">
-        <v>526.5658826424041</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D37" t="n">
-        <v>376.4492432300683</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="E37" t="n">
-        <v>376.4492432300683</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="F37" t="n">
-        <v>376.4492432300683</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="38">
@@ -7166,10 +7168,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,10 +7210,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7245,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2148.04349261611</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2079.600600930059</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7403,19 +7405,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7427,34 +7429,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7667,16 +7669,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466572</v>
@@ -7691,7 +7693,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797186</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797186</v>
+        <v>2876.560776129205</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>3473.939263755757</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>4101.537227310363</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>4653.44695754965</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>4653.44695754965</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1098.667160263526</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>1098.667160263526</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8064,13 +8066,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6.454437538930279</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23413,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>80.62055371233357</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>58.20633287440184</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>13.14699685919582</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>106.0713126946648</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>161.3036423121234</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>187.7316302469143</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24415,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>40.64330621514821</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>127.2568112467075</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>66.09406519747952</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.8202214113364</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>210.9709121168619</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>125.5341284403474</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,10 +25086,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>33.93343655154956</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25123,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0.1352912260291248</v>
       </c>
       <c r="G37" t="n">
-        <v>107.2784330767828</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>101.1181252153552</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>48.3947522799763</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>260.4525338942707</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>180.5487903941883</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>789138.8408462541</v>
+        <v>798051.7320978603</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>775938.4291806906</v>
+        <v>775938.4291806908</v>
       </c>
     </row>
     <row r="6">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>775938.4291806908</v>
+        <v>775938.4291806907</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>775938.4291806908</v>
+        <v>775938.4291806907</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>775938.4291806906</v>
+        <v>775938.4291806907</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>775938.4291806906</v>
+        <v>775938.4291806907</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>775938.4291806907</v>
+        <v>775938.4291806908</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.415891427</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.4158914268</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914267</v>
-      </c>
       <c r="D2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="H2" t="n">
         <v>645717.2797520049</v>
@@ -26335,25 +26337,25 @@
         <v>645717.2797520049</v>
       </c>
       <c r="J2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="K2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="K2" t="n">
-        <v>645717.2797520047</v>
-      </c>
       <c r="L2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520055</v>
       </c>
       <c r="M2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="N2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="O2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="O2" t="n">
-        <v>645717.2797520049</v>
-      </c>
       <c r="P2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520052</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>203438.7416121063</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.461807355</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>49110.0927060546</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89134.1790931202</v>
+        <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312023</v>
+        <v>89134.1790931201</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768939</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="H4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768848</v>
+        <v>9947.14432176893</v>
       </c>
       <c r="K4" t="n">
+        <v>9947.144321768963</v>
+      </c>
+      <c r="L4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="L4" t="n">
-        <v>9947.144321768899</v>
-      </c>
       <c r="M4" t="n">
-        <v>9947.144321768938</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768961</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.144321768979</v>
+        <v>9947.144321768897</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-868979.4494906792</v>
+        <v>-688786.5505315593</v>
       </c>
       <c r="C6" t="n">
-        <v>459765.2962369132</v>
+        <v>256326.5546248071</v>
       </c>
       <c r="D6" t="n">
         <v>459765.2962369133</v>
       </c>
       <c r="E6" t="n">
-        <v>209235.1437989738</v>
+        <v>209235.1437989739</v>
       </c>
       <c r="F6" t="n">
-        <v>534647.605606329</v>
+        <v>534647.6056063289</v>
       </c>
       <c r="G6" t="n">
-        <v>534647.6056063289</v>
+        <v>534647.6056063293</v>
       </c>
       <c r="H6" t="n">
         <v>534647.6056063289</v>
@@ -26543,25 +26545,25 @@
         <v>534647.6056063289</v>
       </c>
       <c r="J6" t="n">
-        <v>317116.4032090517</v>
+        <v>367042.427796346</v>
       </c>
       <c r="K6" t="n">
-        <v>534647.6056063287</v>
+        <v>485537.5129002745</v>
       </c>
       <c r="L6" t="n">
-        <v>534647.6056063292</v>
+        <v>534647.6056063295</v>
       </c>
       <c r="M6" t="n">
-        <v>449592.5776708173</v>
+        <v>449592.5776708171</v>
       </c>
       <c r="N6" t="n">
-        <v>534647.6056063288</v>
+        <v>534647.605606329</v>
       </c>
       <c r="O6" t="n">
         <v>534647.6056063288</v>
       </c>
       <c r="P6" t="n">
-        <v>534647.605606329</v>
+        <v>534647.6056063293</v>
       </c>
     </row>
   </sheetData>
@@ -26707,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022932</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>155.7118084757593</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2767095024436</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>259.9880235719237</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>20.25816188367347</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>170.4007815390659</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,10 +27672,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>8.612648643070372</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>243.8901211953861</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>102.2993007944636</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>21.59472895491427</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>23.2009760423224</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>323.308632556037</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>38.54700077267816</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>107.4111697864621</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28068,16 +28070,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29323,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>7.144629715436042e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29524,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>734.267838362267</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32075,19 +32077,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622665</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32257,7 +32259,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
@@ -32309,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
@@ -32318,7 +32320,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>590.4022545401851</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,10 +32332,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32473,7 +32475,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32549,13 +32551,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>152.5685698206132</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>456.5952253539618</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32707,7 +32709,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817575</v>
@@ -32783,31 +32785,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>162.5000833330458</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,10 +33496,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33509,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>616.9033572954396</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>577.7447198439388</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33974,10 +33976,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>399.1902208908131</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>543.0832917018711</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,7 +34210,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,22 +34219,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>454.1257695262137</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,16 +34447,16 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34465,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>341.8791195350533</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402486</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35723,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402481</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35905,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35966,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>451.847874760311</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,10 +35980,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,7 +36123,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>322.6208179396315</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37157,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>485.5616452121063</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,16 +37387,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>439.1903400640646</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37561,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37622,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>409.1088842875408</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,22 +37867,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38113,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2671959.29903465</v>
+        <v>2667905.17327527</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9019281.971365958</v>
+        <v>9019281.971365957</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>105.2848681990838</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>337.7433820845376</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159.5738182982638</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>191.0686326199082</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>83.86213727474878</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247807</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1056,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>64.94752030416426</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>45.10683729225614</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>17.35112070699578</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>62.92930610001664</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1296,10 +1296,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>57.80541963715993</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>84.90358457993527</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>40.15381658332819</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>56.10180801516488</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>201.4105577836242</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>98.45284414232987</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2529,13 +2529,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>176.76214411214</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695459</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>137.7610225486949</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>159.6155901915576</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.42659968729146</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>131.5907017407193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.2857567969021</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>116.287325111933</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3903,16 +3903,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>98.03921036659287</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>25.7319404949734</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1694.7321336807</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="C2" t="n">
-        <v>1588.383781964454</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="D2" t="n">
-        <v>1230.118083357703</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4330,16 +4330,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362815</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>2084.871465656512</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X2" t="n">
-        <v>2084.871465656512</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="Y2" t="n">
-        <v>1694.7321336807</v>
+        <v>1975.31341879663</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380228</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694945</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341571</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1861.38035112061</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>514.036292340028</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>514.036292340028</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
         <v>514.036292340028</v>
@@ -4488,16 +4488,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234359</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="U4" t="n">
-        <v>1150.699034738196</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="V4" t="n">
-        <v>896.0145465323095</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="W4" t="n">
-        <v>896.0145465323095</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X4" t="n">
-        <v>896.0145465323095</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y4" t="n">
-        <v>675.2219673887794</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1168.124113652745</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1168.124113652745</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>809.8584150459947</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0701624477504</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
@@ -4585,34 +4585,34 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136268</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.33740552049</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794326</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2671.097699223873</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2318.329043953759</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X5" t="n">
-        <v>1944.863285692679</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="Y5" t="n">
-        <v>1554.723953716867</v>
+        <v>2240.58245709072</v>
       </c>
     </row>
     <row r="6">
@@ -4622,70 +4622,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>594.6215500005602</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>529.017994137768</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>529.017994137768</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553749</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4752,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="U7" t="n">
-        <v>1548.361223971665</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="V7" t="n">
-        <v>1293.676735765778</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W7" t="n">
-        <v>1004.259565728817</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X7" t="n">
-        <v>776.2700148307999</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>776.2700148307999</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.11348746897</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,25 +4804,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052369</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189674</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y8" t="n">
-        <v>1987.713327533092</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>754.647583030232</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>585.7114001023251</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>585.7114001023251</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>585.7114001023251</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>438.8214526044147</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>271.1186159791337</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>124.9014291969914</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1446.505797040963</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1446.505797040963</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1157.088627004002</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1157.088627004002</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>936.2960478604717</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5044,16 +5044,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5074,19 +5074,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1017.232257523796</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>848.2960745958886</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>698.1794351835529</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>550.2663416011598</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>403.3763941032494</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1755.431557602304</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1466.014387565343</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1238.024836667326</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>1017.232257523796</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5269,31 +5269,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>449.4852666057155</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>301.5721730233224</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5472,16 +5472,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2140.394052542956</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1851.318825887154</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V19" t="n">
-        <v>1851.318825887154</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W19" t="n">
-        <v>1561.901655850193</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X19" t="n">
-        <v>1333.912104952176</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808646</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="20">
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3175.341129796739</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>3006.404946868832</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>2856.288307456496</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>2708.375213874103</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>2561.485266376193</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>4121.883832013356</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>3867.199343807469</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>3577.782173770509</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>3577.782173770509</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>3356.989594626978</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5974,52 +5974,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466572</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2018.514925172274</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6265,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6314,19 +6314,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.6905094135296</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2240.764831803678</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2021.163366826619</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.131553387299</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.338974243769</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6548,22 +6548,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836013</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138411</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6791,16 +6791,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>917.5010142286973</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>748.5648313007904</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>598.4481918884546</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>450.5350983060615</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>450.5350983060615</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578602</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1099.149479058937</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7022,22 +7022,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7216,7 +7216,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7253,22 +7253,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>352.5519571452614</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2079.600600930059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1790.525374274257</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7490,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>481.447947124485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>2876.560776129205</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>3473.939263755757</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>4101.537227310363</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>4653.44695754965</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>4653.44695754965</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,31 +8057,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.454437538930279</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>80.62055371233357</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>105.2672314396031</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>161.3036423121234</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>84.77391660561992</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>187.7316302469143</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>40.64330621514821</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>43.26526345294974</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>66.09406519747952</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.8202214113364</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>15.00954930701832</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>33.93343655154956</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1352912260291248</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,19 +25602,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>101.1181252153552</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>48.3947522799763</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>260.4525338942707</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>775938.4291806908</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>775938.4291806907</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>775938.4291806906</v>
+        <v>775938.4291806907</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>775938.4291806907</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>775938.4291806907</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>775938.4291806907</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>775938.4291806908</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914272</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="I2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="J2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="M2" t="n">
         <v>645717.2797520047</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="O2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="L2" t="n">
-        <v>645717.2797520055</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520048</v>
-      </c>
       <c r="P2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520051</v>
       </c>
     </row>
     <row r="3">
@@ -26368,7 +26368,7 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121063</v>
+        <v>203438.7416121059</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.0927060546</v>
+        <v>49110.09270605451</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.1790931201</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312014</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26432,19 +26432,19 @@
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
+        <v>9947.144321768959</v>
+      </c>
+      <c r="J4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="J4" t="n">
-        <v>9947.14432176893</v>
-      </c>
       <c r="K4" t="n">
-        <v>9947.144321768963</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
         <v>9947.144321768897</v>
@@ -26459,7 +26459,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26524,46 +26524,46 @@
         <v>-688786.5505315593</v>
       </c>
       <c r="C6" t="n">
-        <v>256326.5546248071</v>
+        <v>256326.5546248074</v>
       </c>
       <c r="D6" t="n">
-        <v>459765.2962369133</v>
+        <v>459765.2962369132</v>
       </c>
       <c r="E6" t="n">
-        <v>209235.1437989739</v>
+        <v>208887.7645446167</v>
       </c>
       <c r="F6" t="n">
-        <v>534647.6056063289</v>
+        <v>534300.2263519722</v>
       </c>
       <c r="G6" t="n">
-        <v>534647.6056063293</v>
+        <v>534300.2263519719</v>
       </c>
       <c r="H6" t="n">
-        <v>534647.6056063289</v>
+        <v>534300.2263519719</v>
       </c>
       <c r="I6" t="n">
-        <v>534647.6056063289</v>
+        <v>534300.2263519719</v>
       </c>
       <c r="J6" t="n">
-        <v>367042.427796346</v>
+        <v>366695.0485419892</v>
       </c>
       <c r="K6" t="n">
-        <v>485537.5129002745</v>
+        <v>485190.1336459175</v>
       </c>
       <c r="L6" t="n">
-        <v>534647.6056063295</v>
+        <v>534300.226351972</v>
       </c>
       <c r="M6" t="n">
-        <v>449592.5776708171</v>
+        <v>449245.1984164599</v>
       </c>
       <c r="N6" t="n">
-        <v>534647.605606329</v>
+        <v>534300.226351972</v>
       </c>
       <c r="O6" t="n">
-        <v>534647.6056063288</v>
+        <v>534300.2263519722</v>
       </c>
       <c r="P6" t="n">
-        <v>534647.6056063293</v>
+        <v>534300.2263519722</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26792,7 +26792,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022932</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757593</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27014,7 +27014,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.816623302254</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27260,7 +27260,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>259.9880235719237</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>16.93965953614531</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.25816188367347</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27587,22 +27587,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>49.55154957999665</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>191.6652090435723</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>243.8901211953861</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>102.2993007944636</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27824,16 +27824,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>174.4421119839131</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>331.8898480104172</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>323.308632556037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>38.54700077267816</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,22 +28061,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>7.144629715436042e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,19 +31849,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32086,22 +32086,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32244,7 +32244,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N17" t="n">
         <v>981.2715114159425</v>
@@ -32259,7 +32259,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
@@ -32311,16 +32311,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>152.5685698206132</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32709,7 +32709,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817575</v>
@@ -32788,13 +32788,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>162.5000833330458</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33034,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33268,25 +33268,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33511,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33666,7 +33666,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33742,25 +33742,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33973,13 +33973,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>399.1902208908131</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33991,7 +33991,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34210,7 +34210,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34219,10 +34219,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>454.1257695262137</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
@@ -34231,10 +34231,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34383,7 +34383,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34459,16 +34459,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313199</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>341.8791195350533</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,19 +35497,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35734,22 +35734,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>25.73094315394657</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36436,13 +36436,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>23.94570355317166</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36682,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37159,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37639,7 +37639,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37867,10 +37867,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>311.9917356041954</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37879,10 +37879,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38031,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38107,16 +38107,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2667905.17327527</v>
+        <v>2669665.703578054</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9019281.971365957</v>
+        <v>9019281.971365955</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>284.0788930262599</v>
       </c>
       <c r="D2" t="n">
-        <v>337.7433820845376</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>171.1971464172153</v>
+        <v>23.59258665411652</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>191.0686326199082</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>303.3106897765203</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>17.35112070699578</v>
+        <v>17.35112070699488</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>245.8640357413583</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2007,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>201.4105577836242</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>104.7777418077832</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>27.02919805176115</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>137.7610225486949</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>51.36569740310337</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3319,10 +3319,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>70.04554881124324</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4309,37 +4309,37 @@
         <v>1975.31341879663</v>
       </c>
       <c r="C2" t="n">
-        <v>1975.31341879663</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4351,10 +4351,10 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
         <v>2437.640120926626</v>
@@ -4391,37 +4391,37 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380228</v>
+        <v>614.5430248380235</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694945</v>
+        <v>909.2465818694952</v>
       </c>
       <c r="M3" t="n">
         <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O3" t="n">
         <v>1991.864164601822</v>
@@ -4430,10 +4430,10 @@
         <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.0891146802707</v>
+        <v>682.9724752679349</v>
       </c>
       <c r="C4" t="n">
-        <v>664.1529317523638</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D4" t="n">
         <v>514.036292340028</v>
@@ -4479,25 +4479,25 @@
         <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1463.519709552058</v>
+        <v>1313.403070139722</v>
       </c>
       <c r="U4" t="n">
-        <v>1463.519709552058</v>
+        <v>1313.403070139722</v>
       </c>
       <c r="V4" t="n">
-        <v>1463.519709552058</v>
+        <v>1313.403070139722</v>
       </c>
       <c r="W4" t="n">
-        <v>1463.519709552058</v>
+        <v>1313.403070139722</v>
       </c>
       <c r="X4" t="n">
-        <v>1235.53015865404</v>
+        <v>1085.413519241705</v>
       </c>
       <c r="Y4" t="n">
-        <v>1014.73757951051</v>
+        <v>864.6209400981746</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>2240.582457090719</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
@@ -4576,19 +4576,19 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X5" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="Y5" t="n">
-        <v>2240.58245709072</v>
+        <v>2240.582457090719</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4713,16 +4713,16 @@
         <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4801,10 +4801,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4825,7 +4825,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4877,10 +4877,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,16 +4889,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4998,16 +4998,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5074,19 +5074,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5269,28 +5269,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5305,7 +5305,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="17">
@@ -5497,22 +5497,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1769.232122535068</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1479.814952498107</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1251.82540160009</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5779,7 +5779,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>738.560493261518</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>590.6473996791249</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5986,13 +5986,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6016,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797186</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,13 +6217,13 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.192580311172</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>557.5558870561822</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2240.764831803678</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2021.163366826619</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1732.088140170817</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1477.40365196493</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1187.986481927969</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>959.9969310299521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>739.2043518864219</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,7 +6460,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6469,16 +6469,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2395.078540748843</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2395.078540748843</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1851.318825887154</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1561.901655850193</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.912104952176</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D34" t="n">
         <v>484.8112968429803</v>
@@ -6900,10 +6900,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="35">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7171,7 +7171,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7323,7 +7323,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7402,19 +7402,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>555.5643764502967</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,19 +7724,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
         <v>2129.438138565707</v>
@@ -7797,7 +7797,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>193.327346787835</v>
+        <v>193.3273467878358</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>84.77391660561992</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>40.64330621514803</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>43.26526345294974</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>15.00954930701832</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>61.40075786968296</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>75.37549921168801</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>775938.4291806907</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>775938.4291806907</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>775938.4291806906</v>
+        <v>775938.4291806908</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>775938.4291806907</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>775938.4291806907</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>775938.4291806906</v>
+        <v>775938.4291806908</v>
       </c>
     </row>
     <row r="16">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914272</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="H2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="K2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="L2" t="n">
         <v>645717.279752005</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520049</v>
       </c>
       <c r="M2" t="n">
         <v>645717.2797520047</v>
@@ -26352,10 +26352,10 @@
         <v>645717.2797520049</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121059</v>
+        <v>203438.7416121058</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605451</v>
+        <v>49110.09270605442</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312014</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26435,10 +26435,10 @@
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768936</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768959</v>
+        <v>9947.144321768938</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
@@ -26459,7 +26459,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-688786.5505315593</v>
+        <v>-688786.5505315595</v>
       </c>
       <c r="C6" t="n">
-        <v>256326.5546248074</v>
+        <v>256326.5546248073</v>
       </c>
       <c r="D6" t="n">
-        <v>459765.2962369132</v>
+        <v>459765.296236913</v>
       </c>
       <c r="E6" t="n">
-        <v>208887.7645446167</v>
+        <v>209200.4058735378</v>
       </c>
       <c r="F6" t="n">
-        <v>534300.2263519722</v>
+        <v>534612.867680893</v>
       </c>
       <c r="G6" t="n">
-        <v>534300.2263519719</v>
+        <v>534612.867680893</v>
       </c>
       <c r="H6" t="n">
-        <v>534300.2263519719</v>
+        <v>534612.8676808932</v>
       </c>
       <c r="I6" t="n">
-        <v>534300.2263519719</v>
+        <v>534612.8676808932</v>
       </c>
       <c r="J6" t="n">
-        <v>366695.0485419892</v>
+        <v>367007.6898709103</v>
       </c>
       <c r="K6" t="n">
-        <v>485190.1336459175</v>
+        <v>485502.7749748385</v>
       </c>
       <c r="L6" t="n">
-        <v>534300.226351972</v>
+        <v>534612.8676808934</v>
       </c>
       <c r="M6" t="n">
-        <v>449245.1984164599</v>
+        <v>449557.839745381</v>
       </c>
       <c r="N6" t="n">
-        <v>534300.226351972</v>
+        <v>534612.8676808933</v>
       </c>
       <c r="O6" t="n">
-        <v>534300.2263519722</v>
+        <v>534612.8676808934</v>
       </c>
       <c r="P6" t="n">
-        <v>534300.2263519722</v>
+        <v>534612.8676808933</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>81.1939987447476</v>
       </c>
       <c r="D2" t="n">
-        <v>16.93965953614531</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>49.55154957999665</v>
+        <v>197.1561093430954</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>191.6652090435723</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>61.9622019944872</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>331.8898480104172</v>
+        <v>331.8898480104181</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>94.35543628911111</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -32244,7 +32244,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
         <v>981.2715114159425</v>
@@ -32943,10 +32943,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33663,10 +33663,10 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33891,10 +33891,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34149,7 +34149,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34383,7 +34383,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34459,7 +34459,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>593.5422977113961</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,19 +34780,19 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313199</v>
+        <v>379.9148430313206</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36591,10 +36591,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37311,10 +37311,10 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37539,10 +37539,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37797,7 +37797,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -38031,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38107,7 +38107,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>462.2005856280628</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
